--- a/doc/杏运树详细功能点说明-健身管理系统.xlsx
+++ b/doc/杏运树详细功能点说明-健身管理系统.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26895" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26892" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="详细功能点说明" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>平台模块</t>
   </si>
   <si>
     <t>功能名称</t>
-  </si>
-  <si>
-    <t>功能描述</t>
   </si>
   <si>
     <t xml:space="preserve">控制台 </t>
@@ -288,18 +285,16 @@
 另外在消次记录中，“财务报表”会列出所有消次情况，包括消次时对应的“会员”、“教练”和“前台操作人员”财务人员可根据此报表核查消次情况。所有消次情况在后台无法人为更改。
 </t>
   </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,151 +321,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,198 +336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -730,255 +401,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +418,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -997,15 +435,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,58 +445,79 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1354,28 +807,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.9416666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.95" customWidth="1"/>
-    <col min="3" max="3" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1383,366 +835,363 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.05" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="25.05" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="25.05" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="34.049999999999997" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="34" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="37.950000000000003" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="38" customHeight="1" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="66" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="66" customHeight="1" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="34.950000000000003" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="28.95" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="55.05" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" ht="55" customHeight="1" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="84" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" ht="84" customHeight="1" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="90" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" ht="90" customHeight="1" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="64.05" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" ht="64" customHeight="1" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="43.05" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" ht="43" customHeight="1" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="45" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="39" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="49.05" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" ht="49" customHeight="1" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.049999999999997" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" ht="49.05" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" ht="49" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="39" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="64.95" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" ht="65" customHeight="1" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="34.049999999999997" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" ht="34" customHeight="1" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="37.950000000000003" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="52.95" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="46.05" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" ht="46" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="52.95" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" ht="53" customHeight="1" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="52.95" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" ht="53" customHeight="1" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="52.95" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="66" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" customFormat="1" ht="66" customHeight="1" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="69" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" customFormat="1" ht="69" customHeight="1" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="34.950000000000003" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="39" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="75" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" customFormat="1" ht="75" customHeight="1" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="87" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" ht="87" customHeight="1" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="52.05" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" customFormat="1" ht="52" customHeight="1" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
       <formula1>"高,中,低,二期"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>